--- a/biology/Botanique/Melocanna/Melocanna.xlsx
+++ b/biology/Botanique/Melocanna/Melocanna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Melocanna est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Bambusoideae, originaire de l'hémisphère nord, originaire d'Asie tropicale, du sous-continent indien à l'Indochine, qui comprend deux d'espèces acceptées.
-Ce sont des bambous, plantes rhizomateuses, à tiges (chaumes) lignifiées pouvant atteindre de 10 à 20 mètres de haut et jusqu'à 9 cm de diamètre. Les fruits, pyriformes, sont des caryopses a péricarpe charnu[2]. La floraison, grégaire, se produit selon un cycle de 45 à 50 ans. 
+Ce sont des bambous, plantes rhizomateuses, à tiges (chaumes) lignifiées pouvant atteindre de 10 à 20 mètres de haut et jusqu'à 9 cm de diamètre. Les fruits, pyriformes, sont des caryopses a péricarpe charnu. La floraison, grégaire, se produit selon un cycle de 45 à 50 ans. 
 Étymologie
-Le nom générique « Melocanna » dérive de deux racines grecques, μῆλον (melon), pomme, et κάννα (kanna), roseau, en référence aux fruits charnus et aux tiges ligneuses de ce bambou[3].</t>
+Le nom générique « Melocanna » dérive de deux racines grecques, μῆλον (melon), pomme, et κάννα (kanna), roseau, en référence aux fruits charnus et aux tiges ligneuses de ce bambou.</t>
         </is>
       </c>
     </row>
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (16 mai 2017)[4], une vingtaine d'espèces ont été décrites, mais deux seulement sont actuellement validées :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (16 mai 2017), une vingtaine d'espèces ont été décrites, mais deux seulement sont actuellement validées :
 Melocanna arundina C.E.Parkinson
 Melocanna baccifera (Roxb.) Kurz</t>
         </is>
